--- a/Registros prueba_Inscripciones.xlsx
+++ b/Registros prueba_Inscripciones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mauri\Documents\TT Final\gestor50mas1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yesua\OneDrive\Documents\TTR\gestor50mas1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D217750-F998-45D5-B118-EBA26CF6E574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE152F32-7573-4432-B59D-801D504D5D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{789BCE59-BEA8-4CBA-9A8A-E6E6562D50CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{789BCE59-BEA8-4CBA-9A8A-E6E6562D50CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Inscripciones" sheetId="2" r:id="rId1"/>
@@ -36,18 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="6">
-  <si>
-    <t>T002</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="3">
   <si>
     <t>T009</t>
-  </si>
-  <si>
-    <t>T018</t>
-  </si>
-  <si>
-    <t>T028</t>
   </si>
   <si>
     <t>codigo_taller</t>
@@ -95,11 +86,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -118,7 +111,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -416,13 +409,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C645A673-7C32-4BC3-B583-42160FBB46FF}">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B48" sqref="A46:B48"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
     <col min="2" max="2" width="32.28515625" customWidth="1"/>
     <col min="3" max="3" width="52.42578125" customWidth="1"/>
     <col min="4" max="4" width="28.28515625" customWidth="1"/>
@@ -430,393 +423,213 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2023060004</v>
+      <c r="A2" s="3">
+        <v>202306260004</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2023060005</v>
+      <c r="A3" s="3">
+        <v>202306260005</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2023060006</v>
+      <c r="A4" s="3">
+        <v>202306260006</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2023060007</v>
+      <c r="A5" s="3">
+        <v>202306260007</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2023060008</v>
+      <c r="A6" s="3">
+        <v>202306260008</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2023060009</v>
+      <c r="A7" s="3">
+        <v>202306260009</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2023060010</v>
+      <c r="A8" s="3">
+        <v>202306260010</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2023060011</v>
+      <c r="A9" s="3">
+        <v>202306260011</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2023060012</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2023060013</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
+      <c r="A11" s="2"/>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2023060014</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
+      <c r="A12" s="2"/>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2023060015</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
+      <c r="A13" s="2"/>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2023060016</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
+      <c r="A14" s="2"/>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2023060017</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
+      <c r="A15" s="2"/>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2023060018</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
+      <c r="A16" s="2"/>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2023060019</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
+      <c r="A17" s="2"/>
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2023060020</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
+      <c r="A18" s="2"/>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2023060021</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2023060022</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
+      <c r="A20" s="2"/>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2023060023</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
+      <c r="A21" s="2"/>
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2023060024</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1</v>
-      </c>
+      <c r="A22" s="2"/>
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2023060025</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
+      <c r="A23" s="2"/>
       <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2023060026</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1</v>
-      </c>
+      <c r="A24" s="2"/>
       <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2023060018</v>
-      </c>
-      <c r="B25" t="s">
-        <v>2</v>
-      </c>
+      <c r="A25" s="2"/>
       <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2023060019</v>
-      </c>
-      <c r="B26" t="s">
-        <v>2</v>
-      </c>
+      <c r="A26" s="2"/>
       <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2023060020</v>
-      </c>
-      <c r="B27" t="s">
-        <v>2</v>
-      </c>
+      <c r="A27" s="2"/>
       <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>2023060021</v>
-      </c>
-      <c r="B28" t="s">
-        <v>2</v>
-      </c>
+      <c r="A28" s="2"/>
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>2023060022</v>
-      </c>
-      <c r="B29" t="s">
-        <v>2</v>
-      </c>
+      <c r="A29" s="2"/>
       <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>2023060023</v>
-      </c>
-      <c r="B30" t="s">
-        <v>2</v>
-      </c>
+      <c r="A30" s="2"/>
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>2023060024</v>
-      </c>
-      <c r="B31" t="s">
-        <v>2</v>
-      </c>
+      <c r="A31" s="2"/>
       <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>2023060025</v>
-      </c>
-      <c r="B32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>2023060026</v>
-      </c>
-      <c r="B33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>2023060047</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>2023060048</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>2023060049</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>2023060047</v>
-      </c>
-      <c r="B37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>2023060048</v>
-      </c>
-      <c r="B38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>2023060049</v>
-      </c>
-      <c r="B39" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>2023060047</v>
-      </c>
-      <c r="B40" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>2023060048</v>
-      </c>
-      <c r="B41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>2023060049</v>
-      </c>
-      <c r="B42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>2023060047</v>
-      </c>
-      <c r="B43" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>2023060048</v>
-      </c>
-      <c r="B44" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>2023060049</v>
-      </c>
-      <c r="B45" t="s">
-        <v>0</v>
-      </c>
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
